--- a/employees.xlsx
+++ b/employees.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kurt.deaustria\Desktop\Automations\pdf-encryption\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{239E18C9-1BC2-4BFE-83D2-65DA765B12D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD8AF3F-D803-4266-9F6E-A836419F60EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3300" yWindow="1992" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -375,7 +375,7 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E5"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
